--- a/assets/files/bieu_mau_lap_hsmt.xlsx
+++ b/assets/files/bieu_mau_lap_hsmt.xlsx
@@ -1,35 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuank\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE93A534-F77F-45F8-82DF-1A6484618AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0181791-60F7-4055-9B38-C67EEC914660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5475" windowWidth="38640" windowHeight="21120" xr2:uid="{035FB211-33B2-45EA-8ED0-960270F425FD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Table" sheetId="1" r:id="rId1"/>
-    <sheet name="Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Input" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Table!$B$1:$B$2</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
   <si>
     <t>Hạng mục mua sắm</t>
   </si>
@@ -43,16 +34,13 @@
     <t>Số lượng</t>
   </si>
   <si>
-    <t>Miền Trung</t>
-  </si>
-  <si>
-    <t>Miền Nam</t>
+    <t/>
+  </si>
+  <si>
+    <t>Bánh mỳ</t>
   </si>
   <si>
     <t>Miền Bắc</t>
-  </si>
-  <si>
-    <t>Bánh mỳ</t>
   </si>
   <si>
     <t>Cái</t>
@@ -74,23 +62,148 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="0"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -99,18 +212,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="43"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -119,93 +225,121 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -225,9 +359,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -235,39 +369,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -319,7 +453,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -371,7 +505,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -430,13 +564,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -445,6 +572,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -509,130 +643,189 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A692370-9B77-4F33-AD16-9F912BE4C6BE}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.875" customWidth="1"/>
+    <col min="2" max="4" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
         <v>10</v>
       </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataConsolidate/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3CA241-C9A4-4823-9CD9-FA8812EA34EB}">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="16"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="20"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="24"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="28"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
